--- a/biology/Médecine/1682_en_santé_et_médecine/1682_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1682_en_santé_et_médecine/1682_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1682_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1682_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1682 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1682_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1682_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France
-30 août : édit contre « les devins et empoisonneurs », qui réglemente l’utilisation des médicaments[1].</t>
+30 août : édit contre « les devins et empoisonneurs », qui réglemente l’utilisation des médicaments.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1682_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1682_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Angleterre
-Le chirurgien de la Marine James Yonge (en) publie Wounds of the Brain Proved Curable (« Plaies du cerveau qui se sont avérées guérissables »)[2].
+Le chirurgien de la Marine James Yonge (en) publie Wounds of the Brain Proved Curable (« Plaies du cerveau qui se sont avérées guérissables »).
 Japon
-Études néerlandaises (Rangaku) au Japon : traduction de textes scientifiques du néerlandais en japonais, principalement pharmacologiques et médicaux, sur des rouleaux illustrés et commentés. Certains médecins tentent des dissections, d’autres réclament plus de traduction[3].</t>
+Études néerlandaises (Rangaku) au Japon : traduction de textes scientifiques du néerlandais en japonais, principalement pharmacologiques et médicaux, sur des rouleaux illustrés et commentés. Certains médecins tentent des dissections, d’autres réclament plus de traduction.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1682_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1682_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4 février : Johann Friedrich Böttger (mort en 1719), apothicaire, chimiste et alchimiste allemand[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 février : Johann Friedrich Böttger (mort en 1719), apothicaire, chimiste et alchimiste allemand.
 25 février : Jean-Baptiste Morgagni (mort en 1771), médecin italien.</t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1682_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1682_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">19 octobre : Thomas Browne (né en 1605), médecin et écrivain anglican anglais.
 En octobre
